--- a/Real2020Entry1/fromBot_FacultySchedules.xlsx
+++ b/Real2020Entry1/fromBot_FacultySchedules.xlsx
@@ -157,91 +157,91 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Advait, Athreya</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Zhu, Hongman</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
     <t>Xu, Angela</t>
   </si>
   <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
     <t>Wang, Harold</t>
   </si>
   <si>
     <t>Bartas, Katrina</t>
   </si>
   <si>
-    <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel</t>
+  </si>
+  <si>
+    <t>Shen, Jiayi</t>
+  </si>
+  <si>
+    <t>Khattab, Sara</t>
   </si>
   <si>
     <t>Czarnecki, Paulina</t>
   </si>
   <si>
-    <t>Sousa, Rachel</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Du, Mingyu</t>
   </si>
   <si>
     <t>Nguyen, Nguyen</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Advait, Athreya</t>
-  </si>
-  <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Zhu, Hongman</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
-    <t>Shen, Jiayi</t>
   </si>
 </sst>
 </file>
@@ -720,106 +720,106 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -830,106 +830,106 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>70</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -940,106 +940,106 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="W4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" t="s">
-        <v>55</v>
-      </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
         <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1050,106 +1050,106 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
         <v>67</v>
       </c>
       <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI5" t="s">
         <v>70</v>
       </c>
-      <c r="AH5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>74</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1160,106 +1160,106 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>49</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1270,106 +1270,106 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" t="s">
-        <v>69</v>
-      </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="Y7" t="s">
         <v>64</v>
       </c>
       <c r="Z7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1380,106 +1380,106 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
-        <v>59</v>
-      </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF8" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI8" t="s">
         <v>61</v>
       </c>
-      <c r="AG8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1490,106 +1490,106 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="AG9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" t="s">
-        <v>62</v>
-      </c>
-      <c r="X9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1600,106 +1600,106 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" t="s">
-        <v>62</v>
-      </c>
-      <c r="W10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1707,109 +1707,109 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC11" t="s">
         <v>70</v>
       </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="AD11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1817,109 +1817,109 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
         <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="AC12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AD12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1927,109 +1927,109 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="AB13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_FacultySchedules.xlsx
+++ b/Real2020Entry1/fromBot_FacultySchedules.xlsx
@@ -178,88 +178,88 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen</t>
+  </si>
+  <si>
+    <t>Advait, Athreya</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
     <t>Khattab, Sara</t>
   </si>
   <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Advait, Athreya</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen</t>
+    <t>Xu, Angela</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
   </si>
   <si>
     <t>Ermoshkin, Maxim</t>
   </si>
   <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Xu, Angela</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>Wang, Harold</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
   </si>
   <si>
     <t>Sousa, Rachel</t>
   </si>
   <si>
-    <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
+    <t>Zhu, Hongman</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
   </si>
   <si>
     <t>Jan, Tzu-Yi (Ian)</t>
   </si>
   <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Zhu, Hongman</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
   </si>
   <si>
     <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Wang, Harold</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
   </si>
 </sst>
 </file>
@@ -762,124 +762,124 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
         <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>81</v>
-      </c>
       <c r="AA2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AP2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -893,124 +893,124 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>72</v>
-      </c>
       <c r="AP3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1021,127 +1021,127 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="AC4" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO4" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>63</v>
-      </c>
       <c r="AP4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1152,124 +1152,124 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
         <v>72</v>
       </c>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB5" t="s">
         <v>68</v>
       </c>
       <c r="AC5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH5" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>59</v>
-      </c>
       <c r="AI5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AK5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AN5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AO5" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="AP5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ5" t="s">
         <v>62</v>
@@ -1283,127 +1283,127 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" t="s">
         <v>69</v>
       </c>
-      <c r="P6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" t="s">
-        <v>66</v>
-      </c>
-      <c r="V6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" t="s">
         <v>54</v>
       </c>
-      <c r="X6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>78</v>
-      </c>
       <c r="AA6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>57</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1414,127 +1414,127 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>61</v>
-      </c>
       <c r="AG7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="AP7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1545,127 +1545,127 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="AA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" t="s">
         <v>64</v>
       </c>
-      <c r="N8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="AD8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="s">
         <v>78</v>
       </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W8" t="s">
-        <v>66</v>
-      </c>
-      <c r="X8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AL8" t="s">
         <v>75</v>
       </c>
-      <c r="AH8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AM8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO8" t="s">
         <v>65</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>61</v>
       </c>
       <c r="AP8" t="s">
         <v>57</v>
       </c>
       <c r="AQ8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1676,127 +1676,127 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
         <v>75</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>67</v>
       </c>
       <c r="N9" t="s">
         <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE9" t="s">
         <v>70</v>
       </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" t="s">
-        <v>66</v>
-      </c>
-      <c r="X9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AF9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>78</v>
-      </c>
       <c r="AH9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AJ9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK9" t="s">
         <v>64</v>
       </c>
       <c r="AL9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AM9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO9" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s">
         <v>77</v>
       </c>
       <c r="AQ9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1807,127 +1807,127 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s">
         <v>68</v>
       </c>
       <c r="V10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP10" t="s">
         <v>66</v>
       </c>
-      <c r="Y10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>73</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -1935,130 +1935,130 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="AG11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" t="s">
         <v>71</v>
       </c>
-      <c r="M11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" t="s">
-        <v>72</v>
-      </c>
-      <c r="V11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>63</v>
-      </c>
       <c r="AP11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2069,127 +2069,127 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AD12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AP12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2197,130 +2197,130 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="W13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE13" t="s">
         <v>55</v>
       </c>
-      <c r="P13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="AF13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH13" t="s">
         <v>64</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AI13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO13" t="s">
         <v>75</v>
       </c>
-      <c r="X13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>62</v>
-      </c>
       <c r="AP13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
